--- a/trash_data.xlsx
+++ b/trash_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morphy\Desktop\p8105_hw2_ml4418\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53F858D1-1B9E-4DF4-B1DE-82A3CB38605D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7693DFBF-8012-4C58-A9B6-64C3C1B6D3AD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="16920" windowHeight="10540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mr. Trash Wheel" sheetId="3" r:id="rId1"/>
@@ -17358,7 +17358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
